--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/F10-F3.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/F10-F3.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="25">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -446,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T10"/>
+  <dimension ref="A1:T7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,7 +525,7 @@
         <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E2">
         <v>3</v>
@@ -534,46 +534,46 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>30.84225633333334</v>
+        <v>0.7846433333333334</v>
       </c>
       <c r="H2">
-        <v>92.526769</v>
+        <v>2.35393</v>
       </c>
       <c r="I2">
-        <v>0.9962704181866476</v>
+        <v>0.8694484673945282</v>
       </c>
       <c r="J2">
-        <v>0.9962704181866476</v>
+        <v>0.8694484673945282</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>5.27881</v>
+        <v>173.637756</v>
       </c>
       <c r="N2">
-        <v>15.83643</v>
+        <v>520.913268</v>
       </c>
       <c r="O2">
-        <v>0.029253274671187</v>
+        <v>0.9875738673498291</v>
       </c>
       <c r="P2">
-        <v>0.029253274671187</v>
+        <v>0.9875738673498291</v>
       </c>
       <c r="Q2">
-        <v>162.8104111549633</v>
+        <v>136.24370766036</v>
       </c>
       <c r="R2">
-        <v>1465.29370039467</v>
+        <v>1226.19336894324</v>
       </c>
       <c r="S2">
-        <v>0.02914417218999234</v>
+        <v>0.858644585406196</v>
       </c>
       <c r="T2">
-        <v>0.02914417218999234</v>
+        <v>0.858644585406196</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,7 +587,7 @@
         <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E3">
         <v>3</v>
@@ -596,16 +596,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>30.84225633333334</v>
+        <v>0.7846433333333334</v>
       </c>
       <c r="H3">
-        <v>92.526769</v>
+        <v>2.35393</v>
       </c>
       <c r="I3">
-        <v>0.9962704181866476</v>
+        <v>0.8694484673945282</v>
       </c>
       <c r="J3">
-        <v>0.9962704181866476</v>
+        <v>0.8694484673945282</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -614,33 +614,33 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>173.637756</v>
+        <v>2.184794333333333</v>
       </c>
       <c r="N3">
-        <v>520.913268</v>
+        <v>6.554383</v>
       </c>
       <c r="O3">
-        <v>0.9622382638429019</v>
+        <v>0.0124261326501708</v>
       </c>
       <c r="P3">
-        <v>0.962238263842902</v>
+        <v>0.0124261326501708</v>
       </c>
       <c r="Q3">
-        <v>5355.380179696788</v>
+        <v>1.714284308354444</v>
       </c>
       <c r="R3">
-        <v>48198.42161727109</v>
+        <v>15.42855877519</v>
       </c>
       <c r="S3">
-        <v>0.9586495175139617</v>
+        <v>0.01080388198833211</v>
       </c>
       <c r="T3">
-        <v>0.9586495175139618</v>
+        <v>0.01080388198833211</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B4" t="s">
         <v>23</v>
@@ -649,25 +649,25 @@
         <v>24</v>
       </c>
       <c r="D4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>30.84225633333334</v>
+        <v>0.09213</v>
       </c>
       <c r="H4">
-        <v>92.526769</v>
+        <v>0.27639</v>
       </c>
       <c r="I4">
-        <v>0.9962704181866476</v>
+        <v>0.1020875140310772</v>
       </c>
       <c r="J4">
-        <v>0.9962704181866476</v>
+        <v>0.1020875140310772</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>1.535368333333333</v>
+        <v>173.637756</v>
       </c>
       <c r="N4">
-        <v>4.606105</v>
+        <v>520.913268</v>
       </c>
       <c r="O4">
-        <v>0.008508461485911143</v>
+        <v>0.9875738673498291</v>
       </c>
       <c r="P4">
-        <v>0.008508461485911145</v>
+        <v>0.9875738673498291</v>
       </c>
       <c r="Q4">
-        <v>47.35422370274945</v>
+        <v>15.99724646028</v>
       </c>
       <c r="R4">
-        <v>426.188013324745</v>
+        <v>143.97521814252</v>
       </c>
       <c r="S4">
-        <v>0.00847672848269368</v>
+        <v>0.1008189610398009</v>
       </c>
       <c r="T4">
-        <v>0.008476728482693681</v>
+        <v>0.1008189610398009</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,7 +711,7 @@
         <v>24</v>
       </c>
       <c r="D5" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E5">
         <v>1</v>
@@ -726,45 +726,45 @@
         <v>0.27639</v>
       </c>
       <c r="I5">
-        <v>0.00297599477274093</v>
+        <v>0.1020875140310772</v>
       </c>
       <c r="J5">
-        <v>0.00297599477274093</v>
+        <v>0.1020875140310772</v>
       </c>
       <c r="K5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M5">
-        <v>5.27881</v>
+        <v>2.184794333333333</v>
       </c>
       <c r="N5">
-        <v>15.83643</v>
+        <v>6.554383</v>
       </c>
       <c r="O5">
-        <v>0.029253274671187</v>
+        <v>0.0124261326501708</v>
       </c>
       <c r="P5">
-        <v>0.029253274671187</v>
+        <v>0.0124261326501708</v>
       </c>
       <c r="Q5">
-        <v>0.4863367653</v>
+        <v>0.20128510193</v>
       </c>
       <c r="R5">
-        <v>4.3770308877</v>
+        <v>1.81156591737</v>
       </c>
       <c r="S5">
-        <v>8.705759250700717E-05</v>
+        <v>0.001268552991276339</v>
       </c>
       <c r="T5">
-        <v>8.705759250700718E-05</v>
+        <v>0.001268552991276339</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B6" t="s">
         <v>23</v>
@@ -782,16 +782,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G6">
-        <v>0.09213</v>
+        <v>0.02568766666666667</v>
       </c>
       <c r="H6">
-        <v>0.27639</v>
+        <v>0.07706300000000001</v>
       </c>
       <c r="I6">
-        <v>0.00297599477274093</v>
+        <v>0.02846401857439453</v>
       </c>
       <c r="J6">
-        <v>0.00297599477274093</v>
+        <v>0.02846401857439454</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,27 +806,27 @@
         <v>520.913268</v>
       </c>
       <c r="O6">
-        <v>0.9622382638429019</v>
+        <v>0.9875738673498291</v>
       </c>
       <c r="P6">
-        <v>0.962238263842902</v>
+        <v>0.9875738673498291</v>
       </c>
       <c r="Q6">
-        <v>15.99724646028</v>
+        <v>4.460348796876</v>
       </c>
       <c r="R6">
-        <v>143.97521814252</v>
+        <v>40.143139171884</v>
       </c>
       <c r="S6">
-        <v>0.002863616043327784</v>
+        <v>0.02811032090383218</v>
       </c>
       <c r="T6">
-        <v>0.002863616043327784</v>
+        <v>0.02811032090383218</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B7" t="s">
         <v>23</v>
@@ -844,16 +844,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G7">
-        <v>0.09213</v>
+        <v>0.02568766666666667</v>
       </c>
       <c r="H7">
-        <v>0.27639</v>
+        <v>0.07706300000000001</v>
       </c>
       <c r="I7">
-        <v>0.00297599477274093</v>
+        <v>0.02846401857439453</v>
       </c>
       <c r="J7">
-        <v>0.00297599477274093</v>
+        <v>0.02846401857439454</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -862,214 +862,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>1.535368333333333</v>
+        <v>2.184794333333333</v>
       </c>
       <c r="N7">
-        <v>4.606105</v>
+        <v>6.554383</v>
       </c>
       <c r="O7">
-        <v>0.008508461485911143</v>
+        <v>0.0124261326501708</v>
       </c>
       <c r="P7">
-        <v>0.008508461485911145</v>
+        <v>0.0124261326501708</v>
       </c>
       <c r="Q7">
-        <v>0.14145348455</v>
+        <v>0.05612226856988888</v>
       </c>
       <c r="R7">
-        <v>1.27308136095</v>
+        <v>0.505100417129</v>
       </c>
       <c r="S7">
-        <v>2.532113690613909E-05</v>
+        <v>0.0003536976705623521</v>
       </c>
       <c r="T7">
-        <v>2.53211369061391E-05</v>
-      </c>
-    </row>
-    <row r="8" spans="1:20">
-      <c r="A8" t="s">
-        <v>22</v>
-      </c>
-      <c r="B8" t="s">
-        <v>23</v>
-      </c>
-      <c r="C8" t="s">
-        <v>24</v>
-      </c>
-      <c r="D8" t="s">
-        <v>20</v>
-      </c>
-      <c r="E8">
-        <v>1</v>
-      </c>
-      <c r="F8">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G8">
-        <v>0.02332933333333333</v>
-      </c>
-      <c r="H8">
-        <v>0.06998799999999999</v>
-      </c>
-      <c r="I8">
-        <v>0.0007535870406114266</v>
-      </c>
-      <c r="J8">
-        <v>0.0007535870406114266</v>
-      </c>
-      <c r="K8">
-        <v>2</v>
-      </c>
-      <c r="L8">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M8">
-        <v>5.27881</v>
-      </c>
-      <c r="N8">
-        <v>15.83643</v>
-      </c>
-      <c r="O8">
-        <v>0.029253274671187</v>
-      </c>
-      <c r="P8">
-        <v>0.029253274671187</v>
-      </c>
-      <c r="Q8">
-        <v>0.1231511180933333</v>
-      </c>
-      <c r="R8">
-        <v>1.10836006284</v>
-      </c>
-      <c r="S8">
-        <v>2.204488868765302E-05</v>
-      </c>
-      <c r="T8">
-        <v>2.204488868765302E-05</v>
-      </c>
-    </row>
-    <row r="9" spans="1:20">
-      <c r="A9" t="s">
-        <v>22</v>
-      </c>
-      <c r="B9" t="s">
-        <v>23</v>
-      </c>
-      <c r="C9" t="s">
-        <v>24</v>
-      </c>
-      <c r="D9" t="s">
-        <v>21</v>
-      </c>
-      <c r="E9">
-        <v>1</v>
-      </c>
-      <c r="F9">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G9">
-        <v>0.02332933333333333</v>
-      </c>
-      <c r="H9">
-        <v>0.06998799999999999</v>
-      </c>
-      <c r="I9">
-        <v>0.0007535870406114266</v>
-      </c>
-      <c r="J9">
-        <v>0.0007535870406114266</v>
-      </c>
-      <c r="K9">
-        <v>3</v>
-      </c>
-      <c r="L9">
-        <v>1</v>
-      </c>
-      <c r="M9">
-        <v>173.637756</v>
-      </c>
-      <c r="N9">
-        <v>520.913268</v>
-      </c>
-      <c r="O9">
-        <v>0.9622382638429019</v>
-      </c>
-      <c r="P9">
-        <v>0.962238263842902</v>
-      </c>
-      <c r="Q9">
-        <v>4.050853088975999</v>
-      </c>
-      <c r="R9">
-        <v>36.457677800784</v>
-      </c>
-      <c r="S9">
-        <v>0.0007251302856124495</v>
-      </c>
-      <c r="T9">
-        <v>0.0007251302856124495</v>
-      </c>
-    </row>
-    <row r="10" spans="1:20">
-      <c r="A10" t="s">
-        <v>22</v>
-      </c>
-      <c r="B10" t="s">
-        <v>23</v>
-      </c>
-      <c r="C10" t="s">
-        <v>24</v>
-      </c>
-      <c r="D10" t="s">
-        <v>22</v>
-      </c>
-      <c r="E10">
-        <v>1</v>
-      </c>
-      <c r="F10">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G10">
-        <v>0.02332933333333333</v>
-      </c>
-      <c r="H10">
-        <v>0.06998799999999999</v>
-      </c>
-      <c r="I10">
-        <v>0.0007535870406114266</v>
-      </c>
-      <c r="J10">
-        <v>0.0007535870406114266</v>
-      </c>
-      <c r="K10">
-        <v>3</v>
-      </c>
-      <c r="L10">
-        <v>1</v>
-      </c>
-      <c r="M10">
-        <v>1.535368333333333</v>
-      </c>
-      <c r="N10">
-        <v>4.606105</v>
-      </c>
-      <c r="O10">
-        <v>0.008508461485911143</v>
-      </c>
-      <c r="P10">
-        <v>0.008508461485911145</v>
-      </c>
-      <c r="Q10">
-        <v>0.03581911963777778</v>
-      </c>
-      <c r="R10">
-        <v>0.32237207674</v>
-      </c>
-      <c r="S10">
-        <v>6.411866311324079E-06</v>
-      </c>
-      <c r="T10">
-        <v>6.411866311324081E-06</v>
+        <v>0.0003536976705623522</v>
       </c>
     </row>
   </sheetData>
